--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H2">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I2">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J2">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>5.218398256708499</v>
+        <v>15.943973824672</v>
       </c>
       <c r="R2">
-        <v>20.87359302683399</v>
+        <v>63.775895298688</v>
       </c>
       <c r="S2">
-        <v>0.005372793871773396</v>
+        <v>0.01780399809047655</v>
       </c>
       <c r="T2">
-        <v>0.003863360942201841</v>
+        <v>0.01309335247944276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H3">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I3">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J3">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>29.08583693467733</v>
+        <v>86.09117236292266</v>
       </c>
       <c r="R3">
-        <v>174.515021608064</v>
+        <v>516.5470341775359</v>
       </c>
       <c r="S3">
-        <v>0.02994639327060546</v>
+        <v>0.09613457003952995</v>
       </c>
       <c r="T3">
-        <v>0.03229987848480949</v>
+        <v>0.1060484115357668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H4">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I4">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J4">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.4767851274394999</v>
+        <v>0.4459654915946666</v>
       </c>
       <c r="R4">
-        <v>2.860710764637</v>
+        <v>2.675792949568</v>
       </c>
       <c r="S4">
-        <v>0.0004908916653815175</v>
+        <v>0.0004979918336596506</v>
       </c>
       <c r="T4">
-        <v>0.0005294708113177799</v>
+        <v>0.000549347054817784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H5">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I5">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J5">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>22.07573770399175</v>
+        <v>31.517374928288</v>
       </c>
       <c r="R5">
-        <v>88.30295081596699</v>
+        <v>126.069499713152</v>
       </c>
       <c r="S5">
-        <v>0.02272888775754266</v>
+        <v>0.03519419243976441</v>
       </c>
       <c r="T5">
-        <v>0.01634343310349193</v>
+        <v>0.02588238689430463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H6">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I6">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J6">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>3.345441870699333</v>
+        <v>0.8800351707413334</v>
       </c>
       <c r="R6">
-        <v>20.072651224196</v>
+        <v>5.280211024448001</v>
       </c>
       <c r="S6">
-        <v>0.003444422732236007</v>
+        <v>0.0009827000891826435</v>
       </c>
       <c r="T6">
-        <v>0.003715119703939196</v>
+        <v>0.001084040667483338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H7">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I7">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J7">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.7463250884526665</v>
+        <v>0.8826372998826666</v>
       </c>
       <c r="R7">
-        <v>4.477950530715999</v>
+        <v>5.295823799296</v>
       </c>
       <c r="S7">
-        <v>0.0007684064466398997</v>
+        <v>0.0009856057827552069</v>
       </c>
       <c r="T7">
-        <v>0.0008287954622493743</v>
+        <v>0.00108724600961628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
         <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J8">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>5.315916545815</v>
+        <v>5.487322050878335</v>
       </c>
       <c r="R8">
-        <v>31.89549927489</v>
+        <v>32.92393230527001</v>
       </c>
       <c r="S8">
-        <v>0.00547319741330526</v>
+        <v>0.006127473137499181</v>
       </c>
       <c r="T8">
-        <v>0.005903335663018201</v>
+        <v>0.006759366507726326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
         <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J9">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
         <v>29.62937556771556</v>
@@ -1013,10 +1013,10 @@
         <v>266.66438010944</v>
       </c>
       <c r="S9">
-        <v>0.03050601346304778</v>
+        <v>0.03308593904070039</v>
       </c>
       <c r="T9">
-        <v>0.04935521879088465</v>
+        <v>0.05474687115144004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
         <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J10">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>0.4856950012383333</v>
+        <v>0.1534847148438889</v>
       </c>
       <c r="R10">
-        <v>4.371255011145</v>
+        <v>1.381362433595</v>
       </c>
       <c r="S10">
-        <v>0.0005000651536799828</v>
+        <v>0.0001713902443673983</v>
       </c>
       <c r="T10">
-        <v>0.0008090478652502078</v>
+        <v>0.0002835971986000839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
         <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J11">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>22.48827581736584</v>
+        <v>10.84710677097167</v>
       </c>
       <c r="R11">
-        <v>134.929654904195</v>
+        <v>65.08264062583001</v>
       </c>
       <c r="S11">
-        <v>0.02315363154641693</v>
+        <v>0.01211253043696889</v>
       </c>
       <c r="T11">
-        <v>0.02497327403248245</v>
+        <v>0.01336163059751548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
         <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J12">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>3.407959476962222</v>
+        <v>0.3028753340327779</v>
       </c>
       <c r="R12">
-        <v>30.67163529266</v>
+        <v>2.725878006295001</v>
       </c>
       <c r="S12">
-        <v>0.003508790033327944</v>
+        <v>0.0003382087758089353</v>
       </c>
       <c r="T12">
-        <v>0.005676818440926316</v>
+        <v>0.0005596296435389338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
         <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J13">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>0.7602719629844443</v>
+        <v>0.3037708899822223</v>
       </c>
       <c r="R13">
-        <v>6.84244766686</v>
+        <v>2.73393800984</v>
       </c>
       <c r="S13">
-        <v>0.0007827659643172632</v>
+        <v>0.0003392088073311365</v>
       </c>
       <c r="T13">
-        <v>0.001266425240313146</v>
+        <v>0.0005612843826359858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H14">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I14">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J14">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N14">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O14">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P14">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q14">
-        <v>63.00250163614199</v>
+        <v>83.74068874002</v>
       </c>
       <c r="R14">
-        <v>252.010006544568</v>
+        <v>334.96275496008</v>
       </c>
       <c r="S14">
-        <v>0.06486654295921167</v>
+        <v>0.09350987895598724</v>
       </c>
       <c r="T14">
-        <v>0.04664293373338735</v>
+        <v>0.06876870011212159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H15">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I15">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J15">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P15">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q15">
-        <v>351.1576539237547</v>
+        <v>452.16670244096</v>
       </c>
       <c r="R15">
-        <v>2106.945923542528</v>
+        <v>2713.00021464576</v>
       </c>
       <c r="S15">
-        <v>0.3615472791104881</v>
+        <v>0.5049164778719488</v>
       </c>
       <c r="T15">
-        <v>0.3899612576465092</v>
+        <v>0.5569858003685534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H16">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I16">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J16">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N16">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O16">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P16">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q16">
-        <v>5.756298061953999</v>
+        <v>2.34229294598</v>
       </c>
       <c r="R16">
-        <v>34.537788371724</v>
+        <v>14.05375767588</v>
       </c>
       <c r="S16">
-        <v>0.005926608401650618</v>
+        <v>0.002615544882106737</v>
       </c>
       <c r="T16">
-        <v>0.006392380193185635</v>
+        <v>0.00288527196755412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H17">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I17">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J17">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N17">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O17">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P17">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q17">
-        <v>266.523678798721</v>
+        <v>165.53506125858</v>
       </c>
       <c r="R17">
-        <v>1066.094715194884</v>
+        <v>662.1402450343199</v>
       </c>
       <c r="S17">
-        <v>0.2744092569576105</v>
+        <v>0.1848463844060097</v>
       </c>
       <c r="T17">
-        <v>0.197316709110737</v>
+        <v>0.1359390656682369</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H18">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I18">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J18">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N18">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O18">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P18">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q18">
-        <v>40.39001942049866</v>
+        <v>4.622106892780001</v>
       </c>
       <c r="R18">
-        <v>242.340116522992</v>
+        <v>27.73264135668001</v>
       </c>
       <c r="S18">
-        <v>0.04158503014680617</v>
+        <v>0.00516132196389419</v>
       </c>
       <c r="T18">
-        <v>0.04485319512074322</v>
+        <v>0.005693581356535701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H19">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I19">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J19">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N19">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O19">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P19">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q19">
-        <v>9.010494273005332</v>
+        <v>4.635773754560001</v>
       </c>
       <c r="R19">
-        <v>54.062965638032</v>
+        <v>27.81464252736</v>
       </c>
       <c r="S19">
-        <v>0.00927708580873777</v>
+        <v>0.005176583202008956</v>
       </c>
       <c r="T19">
-        <v>0.01000617141462265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.864657</v>
-      </c>
-      <c r="I20">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J20">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.077153</v>
-      </c>
-      <c r="N20">
-        <v>20.154306</v>
-      </c>
-      <c r="O20">
-        <v>0.08561976287781047</v>
-      </c>
-      <c r="P20">
-        <v>0.06709546746404282</v>
-      </c>
-      <c r="Q20">
-        <v>9.622528960506999</v>
-      </c>
-      <c r="R20">
-        <v>57.735173763042</v>
-      </c>
-      <c r="S20">
-        <v>0.009907228633520145</v>
-      </c>
-      <c r="T20">
-        <v>0.01068583712543544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.864657</v>
-      </c>
-      <c r="I21">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J21">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>56.16712533333333</v>
-      </c>
-      <c r="N21">
-        <v>168.501376</v>
-      </c>
-      <c r="O21">
-        <v>0.4772197020892965</v>
-      </c>
-      <c r="P21">
-        <v>0.560955985835208</v>
-      </c>
-      <c r="Q21">
-        <v>53.63318291867022</v>
-      </c>
-      <c r="R21">
-        <v>482.698646268032</v>
-      </c>
-      <c r="S21">
-        <v>0.05522001624515523</v>
-      </c>
-      <c r="T21">
-        <v>0.08933963091300469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.864657</v>
-      </c>
-      <c r="I22">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J22">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9207109999999999</v>
-      </c>
-      <c r="N22">
-        <v>2.762133</v>
-      </c>
-      <c r="O22">
-        <v>0.007822750880034444</v>
-      </c>
-      <c r="P22">
-        <v>0.009195385087080598</v>
-      </c>
-      <c r="Q22">
-        <v>0.8791737370423334</v>
-      </c>
-      <c r="R22">
-        <v>7.912563633381001</v>
-      </c>
-      <c r="S22">
-        <v>0.000905185659322327</v>
-      </c>
-      <c r="T22">
-        <v>0.001464486217326975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.864657</v>
-      </c>
-      <c r="I23">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J23">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>42.6300515</v>
-      </c>
-      <c r="N23">
-        <v>85.260103</v>
-      </c>
-      <c r="O23">
-        <v>0.362202985396654</v>
-      </c>
-      <c r="P23">
-        <v>0.2838384247424566</v>
-      </c>
-      <c r="Q23">
-        <v>40.70682514661183</v>
-      </c>
-      <c r="R23">
-        <v>244.240950879671</v>
-      </c>
-      <c r="S23">
-        <v>0.04191120913508393</v>
-      </c>
-      <c r="T23">
-        <v>0.04520500849574525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.864657</v>
-      </c>
-      <c r="I24">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J24">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>6.460321333333333</v>
-      </c>
-      <c r="N24">
-        <v>19.380964</v>
-      </c>
-      <c r="O24">
-        <v>0.05488962811961477</v>
-      </c>
-      <c r="P24">
-        <v>0.06452094353850663</v>
-      </c>
-      <c r="Q24">
-        <v>6.168868243260889</v>
-      </c>
-      <c r="R24">
-        <v>55.519814189348</v>
-      </c>
-      <c r="S24">
-        <v>0.006351385207244649</v>
-      </c>
-      <c r="T24">
-        <v>0.0102758102728979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.864657</v>
-      </c>
-      <c r="I25">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J25">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N25">
-        <v>4.323644</v>
-      </c>
-      <c r="O25">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P25">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q25">
-        <v>1.376195227789778</v>
-      </c>
-      <c r="R25">
-        <v>12.385757050108</v>
-      </c>
-      <c r="S25">
-        <v>0.00141691241689485</v>
-      </c>
-      <c r="T25">
-        <v>0.002292401215520206</v>
+        <v>0.005710416404109893</v>
       </c>
     </row>
   </sheetData>
